--- a/DONE/DONE ENCODING/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/DONE/DONE ENCODING/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE6C97D-7E02-434D-A2B4-01D718CB6BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -246,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -626,8 +625,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -635,14 +637,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -652,6 +648,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,25 +1179,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K97" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K98" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1210,25 +1209,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1535,95 +1534,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K97"/>
+  <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>41436</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1631,7 +1630,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1644,24 +1643,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1705,7 +1704,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.206000000000003</v>
+        <v>89.706000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1715,12 +1714,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.208</v>
+        <v>100.708</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1742,7 +1741,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1762,7 +1761,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1782,7 +1781,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1802,7 +1801,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1822,7 +1821,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1842,7 +1841,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1862,7 +1861,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1882,7 +1881,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1906,7 +1905,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1930,7 +1929,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1950,7 +1949,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -1970,7 +1969,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -1994,7 +1993,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="48"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -2014,7 +2013,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>46</v>
       </c>
@@ -2032,7 +2031,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43466</v>
       </c>
@@ -2052,7 +2051,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="48"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43497</v>
       </c>
@@ -2072,7 +2071,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43525</v>
       </c>
@@ -2092,7 +2091,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43556</v>
       </c>
@@ -2112,7 +2111,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43586</v>
       </c>
@@ -2132,7 +2131,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43617</v>
       </c>
@@ -2152,7 +2151,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43647</v>
       </c>
@@ -2172,7 +2171,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43678</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43709</v>
       </c>
@@ -2218,7 +2217,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43739</v>
       </c>
@@ -2238,7 +2237,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43770</v>
       </c>
@@ -2258,7 +2257,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>43800</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>66</v>
@@ -2304,7 +2303,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>53</v>
       </c>
@@ -2322,7 +2321,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43831</v>
       </c>
@@ -2342,7 +2341,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43862</v>
       </c>
@@ -2362,7 +2361,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43891</v>
       </c>
@@ -2382,7 +2381,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43922</v>
       </c>
@@ -2402,7 +2401,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>43952</v>
       </c>
@@ -2422,7 +2421,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>43983</v>
       </c>
@@ -2442,7 +2441,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -2462,7 +2461,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -2482,7 +2481,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -2502,7 +2501,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44105</v>
       </c>
@@ -2522,7 +2521,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>44136</v>
       </c>
@@ -2542,7 +2541,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44166</v>
       </c>
@@ -2566,7 +2565,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>58</v>
       </c>
@@ -2584,7 +2583,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -2604,7 +2603,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -2624,7 +2623,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44256</v>
       </c>
@@ -2644,7 +2643,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44287</v>
       </c>
@@ -2664,7 +2663,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44317</v>
       </c>
@@ -2684,7 +2683,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44348</v>
       </c>
@@ -2704,7 +2703,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44378</v>
       </c>
@@ -2724,7 +2723,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44409</v>
       </c>
@@ -2744,7 +2743,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44440</v>
       </c>
@@ -2764,7 +2763,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44470</v>
       </c>
@@ -2784,7 +2783,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>44501</v>
       </c>
@@ -2804,7 +2803,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44531</v>
       </c>
@@ -2828,7 +2827,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>61</v>
       </c>
@@ -2846,7 +2845,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44562</v>
       </c>
@@ -2866,7 +2865,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44593</v>
       </c>
@@ -2886,7 +2885,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44621</v>
       </c>
@@ -2906,7 +2905,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44652</v>
       </c>
@@ -2926,7 +2925,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44682</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44713</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44743</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44774</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="20" t="s">
         <v>52</v>
@@ -3044,7 +3043,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44805</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>44835</v>
       </c>
@@ -3090,7 +3089,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44866</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44896</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>65</v>
       </c>
@@ -3156,7 +3155,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>44927</v>
       </c>
@@ -3176,20 +3175,22 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>44958</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
@@ -3198,9 +3199,11 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
@@ -3209,28 +3212,42 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="40"/>
+      <c r="H81" s="40">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="41"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="K81" s="48">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="40"/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="40">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="48">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3246,7 +3263,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3262,7 +3279,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3278,7 +3295,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3294,7 +3311,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3310,7 +3327,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3326,7 +3343,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3342,7 +3359,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3358,7 +3375,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3374,7 +3391,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3390,7 +3407,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3406,7 +3423,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3422,7 +3439,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3438,7 +3455,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3454,41 +3471,57 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="44"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="40"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="15"/>
+      <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="44"/>
+      <c r="H97" s="40"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="15"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="42"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="44"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3511,95 +3544,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>41436</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3607,7 +3640,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3620,24 +3653,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3672,7 +3705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3696,7 +3729,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>43101</v>
       </c>
@@ -3718,7 +3751,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>46</v>
       </c>
@@ -3736,7 +3769,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43466</v>
       </c>
@@ -3758,7 +3791,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43678</v>
       </c>
@@ -3782,7 +3815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -3802,7 +3835,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43770</v>
       </c>
@@ -3826,7 +3859,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -3848,7 +3881,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43800</v>
       </c>
@@ -3872,7 +3905,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -3894,7 +3927,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>53</v>
       </c>
@@ -3912,7 +3945,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43831</v>
       </c>
@@ -3934,7 +3967,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43862</v>
       </c>
@@ -3958,7 +3991,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -3978,7 +4011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -4000,7 +4033,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43891</v>
       </c>
@@ -4024,7 +4057,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>44166</v>
       </c>
@@ -4046,7 +4079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>58</v>
       </c>
@@ -4064,7 +4097,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>44378</v>
       </c>
@@ -4088,7 +4121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>44531</v>
       </c>
@@ -4110,7 +4143,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>61</v>
       </c>
@@ -4128,7 +4161,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>44682</v>
       </c>
@@ -4152,7 +4185,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="20" t="s">
         <v>47</v>
@@ -4174,7 +4207,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -4196,7 +4229,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>44713</v>
       </c>
@@ -4218,7 +4251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -4240,7 +4273,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>44743</v>
       </c>
@@ -4264,7 +4297,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>44774</v>
       </c>
@@ -4288,7 +4321,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>47</v>
@@ -4310,7 +4343,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>44805</v>
       </c>
@@ -4334,7 +4367,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>44835</v>
       </c>
@@ -4358,7 +4391,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -4378,7 +4411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>44866</v>
       </c>
@@ -4402,7 +4435,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -4424,7 +4457,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44896</v>
       </c>
@@ -4448,7 +4481,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>65</v>
       </c>
@@ -4466,7 +4499,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44927</v>
       </c>
@@ -4484,7 +4517,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44958</v>
       </c>
@@ -4506,7 +4539,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4522,7 +4555,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4538,7 +4571,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4554,7 +4587,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4570,7 +4603,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4586,7 +4619,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4602,7 +4635,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4618,7 +4651,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4634,7 +4667,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4650,7 +4683,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4666,7 +4699,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4682,7 +4715,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4698,7 +4731,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4714,7 +4747,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4730,7 +4763,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4746,7 +4779,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4762,7 +4795,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="15"/>
       <c r="C63" s="43"/>
@@ -4793,10 +4826,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4819,7 +4852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4827,21 +4860,21 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4854,7 +4887,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4883,7 +4916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>33.956000000000003</v>
       </c>
@@ -4909,7 +4942,7 @@
         <v>0.83300000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -4924,10 +4957,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -4947,7 +4980,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -4973,7 +5006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -4999,7 +5032,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5025,7 +5058,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5051,7 +5084,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5077,7 +5110,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5103,7 +5136,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5129,7 +5162,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5155,7 +5188,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5175,7 +5208,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5195,7 +5228,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5215,7 +5248,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5236,7 +5269,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5257,7 +5290,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5278,7 +5311,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5299,7 +5332,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5320,7 +5353,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5341,7 +5374,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5362,7 +5395,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5383,7 +5416,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5404,7 +5437,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5425,7 +5458,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5446,7 +5479,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5467,7 +5500,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5488,7 +5521,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5509,7 +5542,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5530,7 +5563,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5551,7 +5584,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5572,7 +5605,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5593,7 +5626,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5614,7 +5647,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5635,7 +5668,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -5644,7 +5677,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -5653,7 +5686,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -5662,7 +5695,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -5671,7 +5704,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -5680,7 +5713,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -5689,7 +5722,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -5698,7 +5731,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -5707,7 +5740,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -5716,7 +5749,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -5725,7 +5758,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -5734,7 +5767,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -5743,7 +5776,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -5752,7 +5785,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -5761,7 +5794,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -5770,7 +5803,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -5779,7 +5812,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -5788,7 +5821,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -5797,7 +5830,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -5806,7 +5839,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -5815,7 +5848,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -5824,7 +5857,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -5833,7 +5866,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -5842,7 +5875,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -5851,7 +5884,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -5860,7 +5893,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -5869,7 +5902,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -5878,7 +5911,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -5887,7 +5920,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -5896,7 +5929,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DONE/DONE ENCODING/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/DONE/DONE ENCODING/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>COSA, PAOLA GRACE PANGANIBAN</t>
+  </si>
+  <si>
+    <t>4/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -1541,9 +1544,9 @@
   <dimension ref="A2:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1717,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.708</v>
+        <v>97.707999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3249,7 +3252,9 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
@@ -3258,14 +3263,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="40"/>
+      <c r="H83" s="40">
+        <v>1</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="48">
+        <v>45016</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="41">
+        <v>45017</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
@@ -3274,10 +3287,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="40"/>
+      <c r="H84" s="40">
+        <v>2</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
